--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Sctr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vip-Sctr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -86,9 +86,6 @@
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,16 +528,16 @@
         <v>23</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.1897233333333334</v>
+        <v>0.7349876666666667</v>
       </c>
       <c r="H2">
-        <v>0.5691700000000001</v>
+        <v>2.204963</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.07763766666666667</v>
+        <v>0.02521133333333334</v>
       </c>
       <c r="N2">
-        <v>0.232913</v>
+        <v>0.07563400000000001</v>
       </c>
       <c r="O2">
-        <v>0.3177912218656537</v>
+        <v>0.2787497281937693</v>
       </c>
       <c r="P2">
-        <v>0.3349116969541848</v>
+        <v>0.2787497281937693</v>
       </c>
       <c r="Q2">
-        <v>0.01472967691222223</v>
+        <v>0.01853001906022222</v>
       </c>
       <c r="R2">
-        <v>0.13256709221</v>
+        <v>0.166770171542</v>
       </c>
       <c r="S2">
-        <v>0.3177912218656537</v>
+        <v>0.2787497281937693</v>
       </c>
       <c r="T2">
-        <v>0.3349116969541848</v>
+        <v>0.2787497281937693</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,114 +590,52 @@
         <v>24</v>
       </c>
       <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.7349876666666667</v>
+      </c>
+      <c r="H3">
+        <v>2.204963</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="L3">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G3">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H3">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>1</v>
-      </c>
-      <c r="L3">
-        <v>0.5</v>
-      </c>
       <c r="M3">
-        <v>0.037466</v>
+        <v>0.065233</v>
       </c>
       <c r="N3">
-        <v>0.074932</v>
+        <v>0.195699</v>
       </c>
       <c r="O3">
-        <v>0.1533581112057109</v>
+        <v>0.7212502718062307</v>
       </c>
       <c r="P3">
-        <v>0.1077466834232996</v>
+        <v>0.7212502718062307</v>
       </c>
       <c r="Q3">
-        <v>0.007108174406666667</v>
+        <v>0.04794545045966667</v>
       </c>
       <c r="R3">
-        <v>0.04264904644</v>
+        <v>0.4315090541370001</v>
       </c>
       <c r="S3">
-        <v>0.1533581112057109</v>
+        <v>0.7212502718062307</v>
       </c>
       <c r="T3">
-        <v>0.1077466834232996</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4">
-        <v>2</v>
-      </c>
-      <c r="F4">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G4">
-        <v>0.1897233333333334</v>
-      </c>
-      <c r="H4">
-        <v>0.5691700000000001</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M4">
-        <v>0.1292003333333333</v>
-      </c>
-      <c r="N4">
-        <v>0.387601</v>
-      </c>
-      <c r="O4">
-        <v>0.5288506669286354</v>
-      </c>
-      <c r="P4">
-        <v>0.5573416196225156</v>
-      </c>
-      <c r="Q4">
-        <v>0.02451231790777778</v>
-      </c>
-      <c r="R4">
-        <v>0.22061086117</v>
-      </c>
-      <c r="S4">
-        <v>0.5288506669286354</v>
-      </c>
-      <c r="T4">
-        <v>0.5573416196225156</v>
+        <v>0.7212502718062307</v>
       </c>
     </row>
   </sheetData>
